--- a/df3.xlsx
+++ b/df3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,37 +434,181 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1236547820</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
+        <v>1234567890</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Vishamber</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>vishamber@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Some Where</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>123654781150</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7814574759</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
+        <v>1236547852</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Sumit</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>sumit@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Somewhere</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>123654789012</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>123456785</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
+        <v>7814574759</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Digamber Jha</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>kumardigamberjha@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>41, Harbans Nagar</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>506591103394</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>7814574</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>adhar</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>1236548222</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Digamber Jha</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>kumardigamberjha@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>41, Harbans Nagar</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>506591103394</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2626553555</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Digamber Jha</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>kumardigamberjha@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>41, Harbans Nagar</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>506591103394</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
